--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4310.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4310.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Axar Rajeshbhai Patel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>15/06/2014</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>17/10/2014</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>06/11/2014</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>09/11/2014</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>13/11/2014</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1104,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3812</t>
+          <t>3812</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1312,7 +1371,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3815</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1411,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>14/07/2015</t>
@@ -1360,7 +1418,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3817</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1412,7 +1470,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1464,7 +1522,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1516,7 +1574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1568,7 +1626,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1608,7 +1666,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -1616,7 +1673,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3895</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1656,7 +1713,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>13/06/2016</t>
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3897</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1704,7 +1760,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>15/06/2016</t>
@@ -1712,7 +1767,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3899</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1807,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>16/10/2016</t>
@@ -1760,7 +1814,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1812,7 +1866,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1852,7 +1906,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>23/10/2016</t>
@@ -1860,7 +1913,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1912,7 +1965,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1964,7 +2017,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2004,7 +2057,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>20/08/2017</t>
@@ -2012,7 +2064,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2064,7 +2116,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2104,7 +2156,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>27/08/2017</t>
@@ -2112,7 +2163,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2152,7 +2203,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>31/08/2017</t>
@@ -2160,7 +2210,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2212,7 +2262,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2252,7 +2302,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>01/10/2017</t>
@@ -2260,7 +2309,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2300,7 +2349,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>25/10/2017</t>
@@ -2308,7 +2356,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2348,7 +2396,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>29/10/2017</t>
@@ -2356,7 +2403,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2408,7 +2455,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2460,7 +2507,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2500,7 +2547,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>27/07/2022</t>
@@ -2508,7 +2554,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2548,7 +2594,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -2556,7 +2601,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4637</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2608,7 +2653,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4640</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2660,7 +2705,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4643</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2712,7 +2757,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2764,7 +2809,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2816,7 +2861,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2868,7 +2913,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2920,7 +2965,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2972,7 +3017,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3024,7 +3069,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3063,7 +3108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3085,7 +3130,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3122,7 +3167,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3159,7 +3204,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3196,7 +3241,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3233,7 +3278,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3270,7 +3315,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3307,7 +3352,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3344,7 +3389,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3381,7 +3426,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3418,7 +3463,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3455,7 +3500,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3492,7 +3537,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3529,7 +3574,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3566,7 +3611,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3812</t>
+          <t>3812</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3603,7 +3648,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3815</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3640,7 +3685,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3817</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3677,7 +3722,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3714,7 +3759,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3751,7 +3796,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3788,7 +3833,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3825,7 +3870,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3895</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3862,7 +3907,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3897</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3899,7 +3944,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3899</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3936,7 +3981,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3973,7 +4018,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4010,7 +4055,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4047,7 +4092,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4084,7 +4129,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4121,7 +4166,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4158,7 +4203,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4195,7 +4240,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4232,7 +4277,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4269,7 +4314,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4306,7 +4351,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4343,7 +4388,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4380,7 +4425,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4417,7 +4462,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4454,7 +4499,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4491,7 +4536,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4528,7 +4573,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4637</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4565,7 +4610,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4640</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4602,7 +4647,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4643</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4639,7 +4684,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4676,7 +4721,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4713,7 +4758,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4750,7 +4795,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4787,7 +4832,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4824,7 +4869,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4850,6 +4895,471 @@
       <c r="G48" t="inlineStr">
         <is>
           <t>2/57</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.82%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3.59%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.05%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9.59%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.79%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4310.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4310.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4955,10 +4956,6 @@
           <t>4062</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4971,335 +4968,614 @@
           <t>4063</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.82%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3.59%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.05%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9.59%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.79%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4064</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4074</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4076</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4088</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4089</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4637</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.59%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4643</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.05%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9.59%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5309,29 +5585,12 @@
           <t>4728</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>24.79%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5339,27 +5598,14 @@
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>5</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.81%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4310.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4310.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4956,6 +4955,10 @@
           <t>4062</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4968,6 +4971,10 @@
           <t>4063</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4983,6 +4990,9 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4995,6 +5005,10 @@
           <t>4074</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5010,6 +5024,9 @@
       <c r="B6" t="n">
         <v>9</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5022,6 +5039,10 @@
           <t>4088</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5037,6 +5058,9 @@
       <c r="B8" t="n">
         <v>8</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5079,6 +5103,10 @@
           <t>4623</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5094,6 +5122,9 @@
       <c r="B11" t="n">
         <v>7</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5109,6 +5140,9 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5151,6 +5185,10 @@
           <t>4643</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5193,6 +5231,10 @@
           <t>4685</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5205,6 +5247,10 @@
           <t>4687</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5247,6 +5293,10 @@
           <t>4691</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5310,302 +5360,6 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4061</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4062</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4063</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4064</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4074</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4076</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4088</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4089</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4637</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4643</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4687</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4310.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4310.xlsx
@@ -4909,7 +4909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4952,10 +4952,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4062</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -4968,13 +4970,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4063</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>3644</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.62%</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4984,12 +5000,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4064</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
+          <t>3645</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -5002,10 +5016,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4074</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -5018,15 +5034,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3.86%</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5036,7 +5064,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4088</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -5052,12 +5080,10 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4089</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -5070,27 +5096,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4621</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5100,7 +5114,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4623</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -5116,12 +5130,10 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -5134,14 +5146,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4637</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
@@ -5152,27 +5172,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.59%</t>
-        </is>
-      </c>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5182,13 +5188,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4643</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5198,27 +5218,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.05%</t>
-        </is>
-      </c>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5228,13 +5234,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3.15%</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5244,13 +5264,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4687</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>3812</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5260,27 +5294,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9.59%</t>
-        </is>
-      </c>
+          <t>3815</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5290,10 +5310,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>3817</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -5306,25 +5328,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>24.79%</t>
+          <t>5.26%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5336,28 +5358,670 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.95%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3848</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3851</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3895</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3899</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7.20%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>15.77%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>6.82%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4637</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3.59%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>6</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.05%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>9.59%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.79%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B52" t="n">
         <v>5</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>0.81%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
